--- a/public/DataPemasukan/Book1.xlsx
+++ b/public/DataPemasukan/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Restu Aji Prasetyo S\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7915D980-30A9-4A55-92AC-580CA22D9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74042491-253D-425E-93FE-3C3B3C11E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A3654B33-143B-4425-8114-EEB0A699F59A}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="B1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/DataPemasukan/Book1.xlsx
+++ b/public/DataPemasukan/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Restu Aji Prasetyo S\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74042491-253D-425E-93FE-3C3B3C11E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B0CCC2-5B14-4618-9E8A-7A75E107675B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A3654B33-143B-4425-8114-EEB0A699F59A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3042B6B-2E66-4F22-9D3A-E84C1BA4AE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,29 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>barang</t>
-  </si>
-  <si>
-    <t>gsgshhd</t>
-  </si>
-  <si>
-    <t>iufhfh</t>
-  </si>
-  <si>
-    <t>jdkl</t>
-  </si>
-  <si>
-    <t>jkhjkl</t>
-  </si>
-  <si>
-    <t>jkdfghjk</t>
+    <t>BANTUAN</t>
   </si>
 </sst>
 </file>
@@ -394,50 +388,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8876C001-0105-4CBA-9771-0CE9594760A2}">
-  <dimension ref="B1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107040D7-1F8E-46A2-A478-89E578E2C2AF}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="D1" s="1">
+        <v>45545</v>
       </c>
-      <c r="E1" s="1">
-        <v>45543</v>
-      </c>
-      <c r="F1">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45544</v>
-      </c>
-      <c r="F2">
-        <v>2233</v>
+      <c r="E1">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
